--- a/Additional_Results/Spending_First_Stage_Regressions.xlsx
+++ b/Additional_Results/Spending_First_Stage_Regressions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyao/Dropbox/Research/COVID_spending/Additional_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1D046-59A1-3047-B0F8-03223E41E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC585A27-5554-7942-B0EA-24F5CE8C30A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="520" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="740" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="2008">
   <si>
     <t/>
   </si>
@@ -5917,6 +5917,144 @@
   </si>
   <si>
     <t>Religious gathering limits * Trump 2020 vote share</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>1.5586***</t>
+  </si>
+  <si>
+    <t>0.0315</t>
+  </si>
+  <si>
+    <t>-0.0581</t>
+  </si>
+  <si>
+    <t>0.3949***</t>
+  </si>
+  <si>
+    <t>0.5651***</t>
+  </si>
+  <si>
+    <t>0.1653**</t>
+  </si>
+  <si>
+    <t>0.5520***</t>
+  </si>
+  <si>
+    <t>0.1705*</t>
+  </si>
+  <si>
+    <t>0.2839**</t>
+  </si>
+  <si>
+    <t>-0.1275</t>
+  </si>
+  <si>
+    <t>-0.0130</t>
+  </si>
+  <si>
+    <t>-0.0161</t>
+  </si>
+  <si>
+    <t>-0.0760</t>
+  </si>
+  <si>
+    <t>-0.1740</t>
+  </si>
+  <si>
+    <t>0.1504</t>
+  </si>
+  <si>
+    <t>-0.0371</t>
+  </si>
+  <si>
+    <t>-0.0900</t>
+  </si>
+  <si>
+    <t>-0.0055</t>
+  </si>
+  <si>
+    <t>0.3935</t>
+  </si>
+  <si>
+    <t>0.0276</t>
+  </si>
+  <si>
+    <t>-0.2197**</t>
+  </si>
+  <si>
+    <t>0.0195**</t>
+  </si>
+  <si>
+    <t>0.1083</t>
+  </si>
+  <si>
+    <t>-0.0177</t>
+  </si>
+  <si>
+    <t>(0.1684)</t>
+  </si>
+  <si>
+    <t>(0.0956)</t>
+  </si>
+  <si>
+    <t>(0.1838)</t>
+  </si>
+  <si>
+    <t>(0.1422)</t>
+  </si>
+  <si>
+    <t>(0.1349)</t>
+  </si>
+  <si>
+    <t>(0.0891)</t>
+  </si>
+  <si>
+    <t>(0.1105)</t>
+  </si>
+  <si>
+    <t>(0.4495)</t>
+  </si>
+  <si>
+    <t>(0.0284)</t>
+  </si>
+  <si>
+    <t>(0.1122)</t>
+  </si>
+  <si>
+    <t>(0.1692)</t>
+  </si>
+  <si>
+    <t>(0.0136)</t>
+  </si>
+  <si>
+    <t>(0.0187)</t>
+  </si>
+  <si>
+    <t>(0.2424)</t>
+  </si>
+  <si>
+    <t>(0.0176)</t>
+  </si>
+  <si>
+    <t>(0.0957)</t>
+  </si>
+  <si>
+    <t>(0.2902)</t>
+  </si>
+  <si>
+    <t>(0.0270)</t>
+  </si>
+  <si>
+    <t>(0.1068)</t>
+  </si>
+  <si>
+    <t>(0.0083)</t>
+  </si>
+  <si>
+    <t>(0.1633)</t>
   </si>
 </sst>
 </file>
@@ -6792,10 +6930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AH85"/>
+  <dimension ref="A2:AH87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AH3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -15021,324 +15159,532 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH81" s="4" t="s">
-        <v>0</v>
+      <c r="A81" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>1975</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>1976</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>1977</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81" s="9" t="s">
+        <v>1978</v>
+      </c>
+      <c r="W81" s="9" t="s">
+        <v>1979</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>1980</v>
+      </c>
+      <c r="Y81" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z81" s="9" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AA81" s="9" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AB81" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="AC81" s="9" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AE81" s="9" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AF81" s="9" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AG81" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH81" s="9" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="P82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="Q82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="R82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="S82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="T82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="U82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="W82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="X82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="Y82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="Z82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AA82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AB82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AC82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AD82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AE82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AF82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AG82" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AH82" s="4" t="s">
-        <v>1855</v>
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>1993</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>1997</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>1998</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>1999</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>2000</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>2001</v>
+      </c>
+      <c r="V82" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="W82" s="9" t="s">
+        <v>2002</v>
+      </c>
+      <c r="X82" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y82" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z82" s="9" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AA82" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB82" s="9" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AC82" s="9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AD82" s="9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AE82" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AF82" s="9" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AG82" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH82" s="9" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>1862</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>1864</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>1865</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>1866</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>1867</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>1866</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>1868</v>
-      </c>
-      <c r="O83" s="6" t="s">
-        <v>1869</v>
-      </c>
-      <c r="P83" s="6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="Q83" s="6" t="s">
-        <v>1871</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>1872</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>1873</v>
-      </c>
-      <c r="T83" s="6" t="s">
-        <v>1874</v>
-      </c>
-      <c r="U83" s="6" t="s">
-        <v>1875</v>
-      </c>
-      <c r="V83" s="6" t="s">
-        <v>1876</v>
-      </c>
-      <c r="W83" s="6" t="s">
-        <v>1877</v>
-      </c>
-      <c r="X83" s="6" t="s">
-        <v>1878</v>
-      </c>
-      <c r="Y83" s="6" t="s">
-        <v>1879</v>
-      </c>
-      <c r="Z83" s="6" t="s">
-        <v>1880</v>
-      </c>
-      <c r="AA83" s="6" t="s">
-        <v>1881</v>
-      </c>
-      <c r="AB83" s="6" t="s">
-        <v>1882</v>
-      </c>
-      <c r="AC83" s="6" t="s">
-        <v>1883</v>
-      </c>
-      <c r="AD83" s="6" t="s">
-        <v>1884</v>
-      </c>
-      <c r="AE83" s="6" t="s">
-        <v>1885</v>
-      </c>
-      <c r="AF83" s="6" t="s">
-        <v>1886</v>
-      </c>
-      <c r="AG83" s="6" t="s">
-        <v>1887</v>
-      </c>
-      <c r="AH83" s="6" t="s">
-        <v>1888</v>
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>1889</v>
+      <c r="A84" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="W84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Y84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Z84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AA84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AB84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AD84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AE84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AF84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AG84" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AH84" s="4" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>1870</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>1872</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>1873</v>
+      </c>
+      <c r="T85" s="6" t="s">
+        <v>1874</v>
+      </c>
+      <c r="U85" s="6" t="s">
+        <v>1875</v>
+      </c>
+      <c r="V85" s="6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="W85" s="6" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X85" s="6" t="s">
+        <v>1878</v>
+      </c>
+      <c r="Y85" s="6" t="s">
+        <v>1879</v>
+      </c>
+      <c r="Z85" s="6" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AA85" s="6" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AB85" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AC85" s="6" t="s">
+        <v>1883</v>
+      </c>
+      <c r="AD85" s="6" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AE85" s="6" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AF85" s="6" t="s">
+        <v>1886</v>
+      </c>
+      <c r="AG85" s="6" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AH85" s="6" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>1890</v>
       </c>
     </row>

--- a/Additional_Results/Spending_First_Stage_Regressions.xlsx
+++ b/Additional_Results/Spending_First_Stage_Regressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyao/Dropbox/Research/COVID_spending/Additional_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC585A27-5554-7942-B0EA-24F5CE8C30A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AE06BC-D11B-4D4F-A191-1DE5F411FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="740" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6932,8 +6932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
